--- a/test.xlsx
+++ b/test.xlsx
@@ -11,6 +11,14 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>abcd</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,15 +358,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>1234</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -360,13 +360,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11111</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
